--- a/data/trans_orig/P6905-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBE40C10-0E28-4242-A29F-EE419AA0CB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF13B24F-1C40-49EA-93FC-AC70E321B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AA67B13-8475-448B-AE66-2D0D62FAF773}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{007F36AA-2521-4CB1-A9C1-706FA5ADAB75}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>37,02%</t>
+    <t>37,36%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>43,43%</t>
+    <t>57,41%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>31,92%</t>
+    <t>28,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>92,47%</t>
   </si>
   <si>
-    <t>62,98%</t>
+    <t>62,64%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,13 +110,13 @@
     <t>85,64%</t>
   </si>
   <si>
-    <t>56,57%</t>
+    <t>42,59%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>68,08%</t>
+    <t>71,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,55 +128,49 @@
     <t>16,27%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>29,16%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
+    <t>48,72%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>70,84%</t>
   </si>
   <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
+    <t>51,28%</t>
   </si>
   <si>
     <t>80,0%</t>
   </si>
   <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -185,1044 +179,1077 @@
     <t>29,6%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>39,62%</t>
   </si>
   <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
     <t>27,05%</t>
   </si>
   <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
   </si>
   <si>
     <t>72,95%</t>
   </si>
   <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
   </si>
   <si>
     <t>65,98%</t>
   </si>
   <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
   </si>
   <si>
     <t>65,54%</t>
   </si>
   <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
   </si>
   <si>
     <t>76,9%</t>
   </si>
   <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
     <t>70,19%</t>
   </si>
   <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
     <t>61,37%</t>
   </si>
   <si>
     <t>79,52%</t>
   </si>
   <si>
-    <t>28,89%</t>
-  </si>
-  <si>
     <t>19,58%</t>
   </si>
   <si>
@@ -1242,9 +1269,6 @@
   </si>
   <si>
     <t>41,09%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
   </si>
   <si>
     <t>61,83%</t>
@@ -1731,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BBFDE0-9943-4D24-897B-C1C5F3BA1FC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821C7D11-B2E8-4796-A471-190019E3B7B1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2028,10 +2052,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -2040,13 +2064,13 @@
         <v>18092</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,13 +2085,13 @@
         <v>53806</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -2076,13 +2100,13 @@
         <v>18549</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
         <v>72</v>
@@ -2091,13 +2115,13 @@
         <v>72354</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,7 +2177,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2165,13 +2189,13 @@
         <v>43207</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2180,13 +2204,13 @@
         <v>20920</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -2195,13 +2219,13 @@
         <v>64127</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2240,13 @@
         <v>102774</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -2231,13 +2255,13 @@
         <v>31877</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>127</v>
@@ -2246,13 +2270,13 @@
         <v>134650</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,7 +2332,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2320,13 +2344,13 @@
         <v>33503</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2335,13 +2359,13 @@
         <v>21568</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -2350,13 +2374,13 @@
         <v>55071</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2395,13 @@
         <v>76441</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -2386,13 +2410,13 @@
         <v>24965</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -2401,13 +2425,13 @@
         <v>101406</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2475,13 +2499,13 @@
         <v>53592</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -2490,13 +2514,13 @@
         <v>39174</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -2505,13 +2529,13 @@
         <v>92767</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2550,13 @@
         <v>83457</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -2541,13 +2565,13 @@
         <v>49377</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -2556,13 +2580,13 @@
         <v>132833</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2654,13 @@
         <v>141892</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -2645,13 +2669,13 @@
         <v>90168</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>219</v>
@@ -2660,13 +2684,13 @@
         <v>232061</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2705,13 @@
         <v>330413</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>127</v>
@@ -2696,13 +2720,13 @@
         <v>129953</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>446</v>
@@ -2711,10 +2735,10 @@
         <v>460366</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>118</v>
@@ -2794,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBAC613-5065-426A-A3F7-CC5344FDB66B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BE2533-5E0F-4868-A620-0AF035B5614A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3073,13 +3097,13 @@
         <v>14726</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -3088,13 +3112,13 @@
         <v>12950</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3103,13 +3127,13 @@
         <v>27676</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3148,13 @@
         <v>39718</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -3139,13 +3163,13 @@
         <v>13957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -3154,13 +3178,13 @@
         <v>53675</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,7 +3240,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3228,13 +3252,13 @@
         <v>21578</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3243,13 +3267,13 @@
         <v>30965</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -3258,13 +3282,13 @@
         <v>52543</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3303,13 @@
         <v>69200</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -3294,13 +3318,13 @@
         <v>32533</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
@@ -3309,13 +3333,13 @@
         <v>101733</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,7 +3395,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3383,13 +3407,13 @@
         <v>24387</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3398,13 +3422,13 @@
         <v>16923</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -3413,13 +3437,13 @@
         <v>41309</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3458,13 @@
         <v>55170</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -3449,13 +3473,13 @@
         <v>36056</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -3464,13 +3488,13 @@
         <v>91227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3538,13 +3562,13 @@
         <v>18712</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -3553,13 +3577,13 @@
         <v>23085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -3568,13 +3592,13 @@
         <v>41798</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3613,13 @@
         <v>59720</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -3604,13 +3628,13 @@
         <v>41011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -3619,13 +3643,13 @@
         <v>100731</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3717,13 @@
         <v>84545</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -3708,13 +3732,13 @@
         <v>88049</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>161</v>
@@ -3723,13 +3747,13 @@
         <v>172594</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3768,13 @@
         <v>240802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>117</v>
@@ -3759,13 +3783,13 @@
         <v>126786</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>348</v>
@@ -3774,13 +3798,13 @@
         <v>367588</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261760F4-99A5-4EB8-9067-873958AF6A0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85BC3B6-A9CB-4552-A053-A2AB17DF7FAC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +4005,13 @@
         <v>2921</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3996,13 +4020,13 @@
         <v>3578</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4011,13 +4035,13 @@
         <v>6499</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4056,13 @@
         <v>5128</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4047,13 +4071,13 @@
         <v>2552</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4062,13 +4086,13 @@
         <v>7680</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4160,13 @@
         <v>10182</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4151,13 +4175,13 @@
         <v>9764</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4166,13 +4190,13 @@
         <v>19946</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4211,13 @@
         <v>36442</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4202,13 +4226,13 @@
         <v>14021</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -4217,13 +4241,13 @@
         <v>50463</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,7 +4303,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4291,13 +4315,13 @@
         <v>20659</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4306,13 +4330,13 @@
         <v>18141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -4321,13 +4345,13 @@
         <v>38800</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4366,13 @@
         <v>76325</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -4357,13 +4381,13 @@
         <v>37411</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
@@ -4372,13 +4396,13 @@
         <v>113735</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,7 +4458,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4446,13 +4470,13 @@
         <v>33584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4461,13 +4485,13 @@
         <v>27569</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -4476,13 +4500,13 @@
         <v>61153</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4521,13 @@
         <v>76351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -4512,13 +4536,13 @@
         <v>37178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>108</v>
@@ -4527,13 +4551,13 @@
         <v>113529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,7 +4613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4601,13 +4625,13 @@
         <v>27718</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4616,13 +4640,13 @@
         <v>30521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4631,13 +4655,13 @@
         <v>58239</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4676,13 @@
         <v>60692</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4667,13 +4691,13 @@
         <v>35562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -4682,13 +4706,13 @@
         <v>96254</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4780,13 @@
         <v>95064</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>87</v>
@@ -4771,13 +4795,13 @@
         <v>89574</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>174</v>
@@ -4786,13 +4810,13 @@
         <v>184638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4831,13 @@
         <v>254937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>120</v>
@@ -4822,13 +4846,13 @@
         <v>126724</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>355</v>
@@ -4837,13 +4861,13 @@
         <v>381661</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7533485F-32FD-4B23-9EDF-06F884704911}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED76E46-AC98-4204-A56E-F6737B49D173}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,13 +5068,13 @@
         <v>2306</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5059,13 +5083,13 @@
         <v>2091</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5074,13 +5098,13 @@
         <v>4397</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,10 +5119,10 @@
         <v>11907</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5110,13 +5134,13 @@
         <v>9200</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5125,13 +5149,13 @@
         <v>21106</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5223,13 @@
         <v>9575</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5214,13 +5238,13 @@
         <v>14566</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5229,13 +5253,13 @@
         <v>24141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5274,13 @@
         <v>50737</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -5265,13 +5289,13 @@
         <v>33428</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -5280,13 +5304,13 @@
         <v>84165</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,7 +5366,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5354,13 +5378,13 @@
         <v>25872</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -5369,13 +5393,13 @@
         <v>37918</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -5384,13 +5408,13 @@
         <v>63790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5429,13 @@
         <v>90578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
@@ -5420,13 +5444,13 @@
         <v>71314</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>186</v>
@@ -5435,13 +5459,13 @@
         <v>161892</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,7 +5521,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5509,13 +5533,13 @@
         <v>11180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>314</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -5524,13 +5548,13 @@
         <v>29907</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -5539,13 +5563,13 @@
         <v>41087</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5584,13 @@
         <v>46857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -5575,13 +5599,13 @@
         <v>49871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -5590,13 +5614,13 @@
         <v>96729</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,7 +5676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5664,13 +5688,13 @@
         <v>30045</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -5679,13 +5703,13 @@
         <v>40919</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -5694,13 +5718,13 @@
         <v>70964</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5739,13 @@
         <v>73961</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>106</v>
@@ -5730,13 +5754,13 @@
         <v>71997</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M17" s="7">
         <v>177</v>
@@ -5745,13 +5769,13 @@
         <v>145957</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5843,13 @@
         <v>78977</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>151</v>
@@ -5834,13 +5858,13 @@
         <v>125402</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>225</v>
@@ -5849,13 +5873,13 @@
         <v>204379</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5894,13 @@
         <v>274041</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>323</v>
@@ -5885,13 +5909,13 @@
         <v>235809</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>587</v>
@@ -5900,13 +5924,13 @@
         <v>509849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6905-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF13B24F-1C40-49EA-93FC-AC70E321B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B3CEF72-C598-4464-89FA-A4913131CCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{007F36AA-2521-4CB1-A9C1-706FA5ADAB75}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9BFD7393-E3FC-45A0-83EA-7501F8D6639B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,1270 +80,1246 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>37,36%</t>
+    <t>36,98%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>57,41%</t>
+    <t>43,42%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
     <t>28,89%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
   </si>
   <si>
     <t>71,11%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
+    <t>61,56%</t>
   </si>
   <si>
     <t>63,76%</t>
   </si>
   <si>
-    <t>50,29%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
   </si>
   <si>
     <t>67,29%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821C7D11-B2E8-4796-A471-190019E3B7B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5333FB-9E33-4AE6-9727-230BDF1A3211}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2052,10 +2028,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -2064,13 +2040,13 @@
         <v>18092</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,13 +2061,13 @@
         <v>53806</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -2100,13 +2076,13 @@
         <v>18549</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>72</v>
@@ -2115,13 +2091,13 @@
         <v>72354</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,7 +2153,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2189,13 +2165,13 @@
         <v>43207</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2204,13 +2180,13 @@
         <v>20920</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -2219,13 +2195,13 @@
         <v>64127</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2216,13 @@
         <v>102774</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -2255,13 +2231,13 @@
         <v>31877</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>127</v>
@@ -2270,13 +2246,13 @@
         <v>134650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2308,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2344,13 +2320,13 @@
         <v>33503</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2359,13 +2335,13 @@
         <v>21568</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -2374,13 +2350,13 @@
         <v>55071</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2371,13 @@
         <v>76441</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -2410,13 +2386,13 @@
         <v>24965</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -2425,13 +2401,13 @@
         <v>101406</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,7 +2463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2499,13 +2475,13 @@
         <v>53592</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -2514,13 +2490,13 @@
         <v>39174</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -2529,13 +2505,13 @@
         <v>92767</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2526,13 @@
         <v>83457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -2565,13 +2541,13 @@
         <v>49377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -2580,13 +2556,13 @@
         <v>132833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2630,13 @@
         <v>141892</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -2669,13 +2645,13 @@
         <v>90168</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>219</v>
@@ -2684,13 +2660,13 @@
         <v>232061</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2681,13 @@
         <v>330413</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>127</v>
@@ -2720,13 +2696,13 @@
         <v>129953</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>446</v>
@@ -2735,13 +2711,13 @@
         <v>460366</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,7 +2773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BE2533-5E0F-4868-A620-0AF035B5614A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF10A596-AEE5-44ED-85D2-DFB15012716C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,13 +2918,13 @@
         <v>5143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2957,13 +2933,13 @@
         <v>4126</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2972,13 +2948,13 @@
         <v>9269</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2969,13 @@
         <v>16994</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3008,13 +2984,13 @@
         <v>3228</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -3023,13 +2999,13 @@
         <v>20222</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3073,13 @@
         <v>14726</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -3112,13 +3088,13 @@
         <v>12950</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3127,13 +3103,13 @@
         <v>27676</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3124,13 @@
         <v>39718</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -3163,13 +3139,13 @@
         <v>13957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -3178,13 +3154,13 @@
         <v>53675</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,7 +3216,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3252,13 +3228,13 @@
         <v>21578</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3267,13 +3243,13 @@
         <v>30965</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -3282,13 +3258,13 @@
         <v>52543</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3279,13 @@
         <v>69200</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -3318,13 +3294,13 @@
         <v>32533</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
@@ -3333,13 +3309,13 @@
         <v>101733</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,7 +3371,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3550,7 +3526,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3860,7 +3836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85BC3B6-A9CB-4552-A053-A2AB17DF7FAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2461E57D-4090-470A-9A91-B1F26B14DE65}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4303,7 +4279,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4458,7 +4434,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4485,13 +4461,13 @@
         <v>27569</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -4500,13 +4476,13 @@
         <v>61153</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4497,13 @@
         <v>76351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -4536,13 +4512,13 @@
         <v>37178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>108</v>
@@ -4551,13 +4527,13 @@
         <v>113529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4589,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4625,13 +4601,13 @@
         <v>27718</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4640,13 +4616,13 @@
         <v>30521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4655,13 +4631,13 @@
         <v>58239</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4652,13 @@
         <v>60692</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4691,13 +4667,13 @@
         <v>35562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -4706,13 +4682,13 @@
         <v>96254</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4756,13 @@
         <v>95064</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>87</v>
@@ -4795,13 +4771,13 @@
         <v>89574</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>174</v>
@@ -4810,13 +4786,13 @@
         <v>184638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4807,13 @@
         <v>254937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>120</v>
@@ -4846,13 +4822,13 @@
         <v>126724</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>355</v>
@@ -4861,13 +4837,13 @@
         <v>381661</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,7 +4899,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED76E46-AC98-4204-A56E-F6737B49D173}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B57CB7-ACA8-422A-8BC4-47FEC2AE3D7C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5044,13 @@
         <v>2306</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5083,13 +5059,13 @@
         <v>2091</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5098,13 +5074,13 @@
         <v>4397</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,10 +5095,10 @@
         <v>11907</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5134,13 +5110,13 @@
         <v>9200</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5149,13 +5125,13 @@
         <v>21106</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5199,13 @@
         <v>9575</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5238,13 +5214,13 @@
         <v>14566</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5253,13 +5229,13 @@
         <v>24141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5250,13 @@
         <v>50737</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -5289,13 +5265,13 @@
         <v>33428</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -5304,13 +5280,13 @@
         <v>84165</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,7 +5342,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5378,13 +5354,13 @@
         <v>25872</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -5393,13 +5369,13 @@
         <v>37918</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -5408,13 +5384,13 @@
         <v>63790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5405,13 @@
         <v>90578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
@@ -5444,13 +5420,13 @@
         <v>71314</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>186</v>
@@ -5459,13 +5435,13 @@
         <v>161892</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,7 +5497,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5533,13 +5509,13 @@
         <v>11180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -5548,13 +5524,13 @@
         <v>29907</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -5563,13 +5539,13 @@
         <v>41087</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5560,13 @@
         <v>46857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>24</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -5599,13 +5575,13 @@
         <v>49871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -5614,13 +5590,13 @@
         <v>96729</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,7 +5652,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5688,13 +5664,13 @@
         <v>30045</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>403</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -5703,13 +5679,13 @@
         <v>40919</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -5718,13 +5694,13 @@
         <v>70964</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5715,13 @@
         <v>73961</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>25</v>
+        <v>407</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>106</v>
@@ -5754,13 +5730,13 @@
         <v>71997</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>177</v>
@@ -5769,13 +5745,13 @@
         <v>145957</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5819,13 @@
         <v>78977</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>419</v>
+        <v>17</v>
       </c>
       <c r="H19" s="7">
         <v>151</v>
@@ -5858,13 +5834,13 @@
         <v>125402</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>420</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M19" s="7">
         <v>225</v>
@@ -5873,13 +5849,13 @@
         <v>204379</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5870,13 @@
         <v>274041</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>427</v>
+        <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>323</v>
@@ -5909,13 +5885,13 @@
         <v>235809</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>587</v>
@@ -5924,13 +5900,13 @@
         <v>509849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,7 +5962,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6905-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B3CEF72-C598-4464-89FA-A4913131CCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F95ABC-303A-4705-A769-6D4408F7B679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9BFD7393-E3FC-45A0-83EA-7501F8D6639B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00EB94D3-4108-456D-8788-6C2A4EC19670}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>7,53%</t>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>36,98%</t>
+    <t>37,02%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>43,42%</t>
+    <t>43,43%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>27,77%</t>
+    <t>31,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>92,47%</t>
   </si>
   <si>
-    <t>63,02%</t>
+    <t>62,98%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,13 +110,13 @@
     <t>85,64%</t>
   </si>
   <si>
-    <t>56,58%</t>
+    <t>56,57%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>72,23%</t>
+    <t>68,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,1198 +128,1198 @@
     <t>16,27%</t>
   </si>
   <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
   </si>
   <si>
     <t>34,71%</t>
   </si>
   <si>
-    <t>40,96%</t>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>65,28%</t>
   </si>
   <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5333FB-9E33-4AE6-9727-230BDF1A3211}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA03AD-C910-4601-9ABC-A2ABCD13A618}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2666,7 +2666,7 @@
         <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2681,13 @@
         <v>330413</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>127</v>
@@ -2696,13 +2696,13 @@
         <v>129953</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>446</v>
@@ -2711,13 +2711,13 @@
         <v>460366</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,7 +2773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF10A596-AEE5-44ED-85D2-DFB15012716C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913182C4-7686-4578-A045-1AD8B074F936}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,13 +2918,13 @@
         <v>5143</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2933,13 +2933,13 @@
         <v>4126</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2948,13 +2948,13 @@
         <v>9269</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2969,13 @@
         <v>16994</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2984,13 +2984,13 @@
         <v>3228</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -2999,13 +2999,13 @@
         <v>20222</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3073,13 @@
         <v>14726</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -3088,13 +3088,13 @@
         <v>12950</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3103,13 +3103,13 @@
         <v>27676</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3124,13 @@
         <v>39718</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -3139,13 +3139,13 @@
         <v>13957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -3154,13 +3154,13 @@
         <v>53675</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3228,13 @@
         <v>21578</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3243,13 +3243,13 @@
         <v>30965</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -3258,13 +3258,13 @@
         <v>52543</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3279,13 @@
         <v>69200</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -3294,13 +3294,13 @@
         <v>32533</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
@@ -3309,13 +3309,13 @@
         <v>101733</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3383,13 @@
         <v>24387</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3398,13 +3398,13 @@
         <v>16923</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -3413,13 +3413,13 @@
         <v>41309</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3434,13 @@
         <v>55170</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -3449,13 +3449,13 @@
         <v>36056</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -3464,13 +3464,13 @@
         <v>91227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3538,13 @@
         <v>18712</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -3553,13 +3553,13 @@
         <v>23085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -3568,13 +3568,13 @@
         <v>41798</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3589,13 @@
         <v>59720</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -3604,13 +3604,13 @@
         <v>41011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -3619,13 +3619,13 @@
         <v>100731</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3693,13 @@
         <v>84545</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -3708,13 +3708,13 @@
         <v>88049</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>161</v>
@@ -3723,13 +3723,13 @@
         <v>172594</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3744,13 @@
         <v>240802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>117</v>
@@ -3759,13 +3759,13 @@
         <v>126786</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>348</v>
@@ -3774,13 +3774,13 @@
         <v>367588</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2461E57D-4090-470A-9A91-B1F26B14DE65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD85A3FD-9868-4833-A481-9F55CB9FDC86}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +3981,13 @@
         <v>2921</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3996,13 +3996,13 @@
         <v>3578</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4011,13 +4011,13 @@
         <v>6499</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4032,13 @@
         <v>5128</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4047,13 +4047,13 @@
         <v>2552</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4062,13 +4062,13 @@
         <v>7680</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4136,13 @@
         <v>10182</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4151,13 +4151,13 @@
         <v>9764</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4166,13 +4166,13 @@
         <v>19946</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4187,13 @@
         <v>36442</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4202,13 +4202,13 @@
         <v>14021</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -4217,13 +4217,13 @@
         <v>50463</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4291,13 @@
         <v>20659</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4306,13 +4306,13 @@
         <v>18141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -4321,13 +4321,13 @@
         <v>38800</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4342,13 @@
         <v>76325</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -4357,13 +4357,13 @@
         <v>37411</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
@@ -4372,13 +4372,13 @@
         <v>113735</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4446,13 @@
         <v>33584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4461,13 +4461,13 @@
         <v>27569</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -4476,13 +4476,13 @@
         <v>61153</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4497,13 @@
         <v>76351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -4512,13 +4512,13 @@
         <v>37178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>108</v>
@@ -4527,13 +4527,13 @@
         <v>113529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4601,13 @@
         <v>27718</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4616,13 +4616,13 @@
         <v>30521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4631,13 +4631,13 @@
         <v>58239</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4652,13 @@
         <v>60692</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4667,13 +4667,13 @@
         <v>35562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -4682,13 +4682,13 @@
         <v>96254</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4756,13 @@
         <v>95064</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>87</v>
@@ -4771,13 +4771,13 @@
         <v>89574</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>174</v>
@@ -4786,13 +4786,13 @@
         <v>184638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4807,13 @@
         <v>254937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>120</v>
@@ -4822,13 +4822,13 @@
         <v>126724</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>355</v>
@@ -4837,13 +4837,13 @@
         <v>381661</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +4899,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4920,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B57CB7-ACA8-422A-8BC4-47FEC2AE3D7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1604900F-C991-4B1B-83DA-5D15E6C52217}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,13 +5044,13 @@
         <v>2306</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5059,13 +5059,13 @@
         <v>2091</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5074,13 +5074,13 @@
         <v>4397</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,10 +5095,10 @@
         <v>11907</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5110,13 +5110,13 @@
         <v>9200</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5125,13 +5125,13 @@
         <v>21106</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5199,13 @@
         <v>9575</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5214,13 +5214,13 @@
         <v>14566</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5229,13 +5229,13 @@
         <v>24141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5250,13 @@
         <v>50737</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -5265,13 +5265,13 @@
         <v>33428</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -5280,13 +5280,13 @@
         <v>84165</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5354,13 @@
         <v>25872</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -5369,13 +5369,13 @@
         <v>37918</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -5384,13 +5384,13 @@
         <v>63790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5405,13 @@
         <v>90578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
@@ -5420,13 +5420,13 @@
         <v>71314</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>113</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>186</v>
@@ -5435,13 +5435,13 @@
         <v>161892</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5509,13 @@
         <v>11180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>384</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -5524,13 +5524,13 @@
         <v>29907</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -5539,13 +5539,13 @@
         <v>41087</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5560,13 @@
         <v>46857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>24</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -5575,13 +5575,13 @@
         <v>49871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -5590,13 +5590,13 @@
         <v>96729</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>311</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5664,13 @@
         <v>30045</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -5679,13 +5679,13 @@
         <v>40919</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -5694,13 +5694,13 @@
         <v>70964</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5715,13 @@
         <v>73961</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>106</v>
@@ -5730,13 +5730,13 @@
         <v>71997</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>177</v>
@@ -5745,13 +5745,13 @@
         <v>145957</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5819,13 @@
         <v>78977</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>17</v>
+        <v>411</v>
       </c>
       <c r="H19" s="7">
         <v>151</v>
@@ -5834,13 +5834,13 @@
         <v>125402</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>412</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>225</v>
@@ -5849,13 +5849,13 @@
         <v>204379</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>244</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5870,13 @@
         <v>274041</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>25</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>323</v>
@@ -5885,13 +5885,13 @@
         <v>235809</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>587</v>
@@ -5900,7 +5900,7 @@
         <v>509849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>236</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>425</v>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6905-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F95ABC-303A-4705-A769-6D4408F7B679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62431CDD-64DA-4FEB-B45B-F2F20C254CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00EB94D3-4108-456D-8788-6C2A4EC19670}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{039BCDFD-05FD-4BE1-AA31-DA886F1DABF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="376">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,333 +68,294 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
   </si>
   <si>
     <t>37,02%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
   </si>
   <si>
     <t>62,98%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
     <t>70,2%</t>
   </si>
   <si>
@@ -404,94 +365,58 @@
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
   </si>
   <si>
     <t>23,77%</t>
@@ -713,613 +638,535 @@
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2016 (Tasa respuesta: 8,05%)</t>
   </si>
   <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>65,3%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
   </si>
 </sst>
 </file>
@@ -1731,8 +1578,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA03AD-C910-4601-9ABC-A2ABCD13A618}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E987084-827E-425A-A799-9BF52AFD88AB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1849,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>1134</v>
+        <v>11590</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1864,85 +1711,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>870</v>
+        <v>8506</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>2004</v>
+        <v>20096</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D5" s="7">
-        <v>13937</v>
+        <v>67741</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>5186</v>
+        <v>23735</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="N5" s="7">
-        <v>19122</v>
+        <v>91476</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,153 +1798,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>15071</v>
+        <v>79331</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>6056</v>
+        <v>32241</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>21126</v>
+        <v>111572</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>10455</v>
+        <v>43207</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>7637</v>
+        <v>20920</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="N7" s="7">
-        <v>18092</v>
+        <v>64127</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D8" s="7">
-        <v>53806</v>
+        <v>102774</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7">
-        <v>18549</v>
+        <v>31877</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="N8" s="7">
-        <v>72354</v>
+        <v>134650</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,153 +1953,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D9" s="7">
-        <v>64261</v>
+        <v>145981</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I9" s="7">
-        <v>26186</v>
+        <v>52797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="N9" s="7">
-        <v>90446</v>
+        <v>198777</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>43207</v>
+        <v>33503</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
+        <v>22</v>
+      </c>
+      <c r="I10" s="7">
+        <v>21568</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="7">
         <v>49</v>
       </c>
-      <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>20920</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="7">
+      <c r="N10" s="7">
+        <v>55071</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="N10" s="7">
-        <v>64127</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7">
-        <v>102774</v>
+        <v>76441</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>31877</v>
+        <v>24965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="N11" s="7">
-        <v>134650</v>
+        <v>101406</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,153 +2108,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D12" s="7">
-        <v>145981</v>
+        <v>109944</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I12" s="7">
-        <v>52797</v>
+        <v>46533</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>198777</v>
+        <v>156477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7">
-        <v>33503</v>
+        <v>53592</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>21568</v>
+        <v>39174</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="N13" s="7">
-        <v>55071</v>
+        <v>92767</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D14" s="7">
-        <v>76441</v>
+        <v>83457</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I14" s="7">
-        <v>24965</v>
+        <v>49377</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="N14" s="7">
-        <v>101406</v>
+        <v>132833</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,153 +2263,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D15" s="7">
-        <v>109944</v>
+        <v>137049</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I15" s="7">
-        <v>46533</v>
+        <v>88551</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="N15" s="7">
-        <v>156477</v>
+        <v>225600</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="D16" s="7">
-        <v>53592</v>
+        <v>141892</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="I16" s="7">
-        <v>39174</v>
+        <v>90168</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="N16" s="7">
-        <v>92767</v>
+        <v>232061</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="D17" s="7">
-        <v>83457</v>
+        <v>330413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="I17" s="7">
-        <v>49377</v>
+        <v>129953</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>130</v>
+        <v>446</v>
       </c>
       <c r="N17" s="7">
-        <v>132833</v>
+        <v>460366</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,217 +2418,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>138</v>
+        <v>450</v>
       </c>
       <c r="D18" s="7">
-        <v>137049</v>
+        <v>472305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>88551</v>
+        <v>220121</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>223</v>
+        <v>665</v>
       </c>
       <c r="N18" s="7">
-        <v>225600</v>
+        <v>692427</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>131</v>
-      </c>
-      <c r="D19" s="7">
-        <v>141892</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>88</v>
-      </c>
-      <c r="I19" s="7">
-        <v>90168</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>219</v>
-      </c>
-      <c r="N19" s="7">
-        <v>232061</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>319</v>
-      </c>
-      <c r="D20" s="7">
-        <v>330413</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>127</v>
-      </c>
-      <c r="I20" s="7">
-        <v>129953</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>446</v>
-      </c>
-      <c r="N20" s="7">
-        <v>460366</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>450</v>
-      </c>
-      <c r="D21" s="7">
-        <v>472305</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>215</v>
-      </c>
-      <c r="I21" s="7">
-        <v>220121</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>665</v>
-      </c>
-      <c r="N21" s="7">
-        <v>692427</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2794,8 +2485,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913182C4-7686-4578-A045-1AD8B074F936}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E3EA63-4A93-4E9B-8E13-D3E85FBB4712}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2811,7 +2502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2912,100 +2603,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>5143</v>
+        <v>19868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>4126</v>
+        <v>17077</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>9269</v>
+        <v>36945</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7">
-        <v>16994</v>
+        <v>56712</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>3228</v>
+        <v>17185</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="N5" s="7">
-        <v>20222</v>
+        <v>73897</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,153 +2705,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D6" s="7">
-        <v>22137</v>
+        <v>76580</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7">
-        <v>7354</v>
+        <v>34262</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="N6" s="7">
-        <v>29491</v>
+        <v>110842</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>14726</v>
+        <v>21578</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>12950</v>
+        <v>30965</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N7" s="7">
-        <v>27676</v>
+        <v>52543</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D8" s="7">
-        <v>39718</v>
+        <v>69200</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I8" s="7">
-        <v>13957</v>
+        <v>32533</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="N8" s="7">
-        <v>53675</v>
+        <v>101733</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,153 +2860,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7">
-        <v>54444</v>
+        <v>90778</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I9" s="7">
-        <v>26907</v>
+        <v>63498</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="N9" s="7">
-        <v>81351</v>
+        <v>154276</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>21578</v>
+        <v>24387</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="7">
+        <v>17</v>
+      </c>
+      <c r="I10" s="7">
+        <v>16923</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="7">
+        <v>39</v>
+      </c>
+      <c r="N10" s="7">
+        <v>41309</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" s="7">
-        <v>27</v>
-      </c>
-      <c r="I10" s="7">
-        <v>30965</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M10" s="7">
-        <v>48</v>
-      </c>
-      <c r="N10" s="7">
-        <v>52543</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7">
-        <v>69200</v>
+        <v>55170</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="7">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7">
+        <v>36056</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="7">
+        <v>82</v>
+      </c>
+      <c r="N11" s="7">
+        <v>91227</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="7">
-        <v>31</v>
-      </c>
-      <c r="I11" s="7">
-        <v>32533</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M11" s="7">
-        <v>95</v>
-      </c>
-      <c r="N11" s="7">
-        <v>101733</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,153 +3015,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>90778</v>
+        <v>79557</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I12" s="7">
-        <v>63498</v>
+        <v>52979</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="N12" s="7">
-        <v>154276</v>
+        <v>132536</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>24387</v>
+        <v>18712</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="7">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7">
+        <v>23085</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="7">
+        <v>40</v>
+      </c>
+      <c r="N13" s="7">
+        <v>41798</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16923</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M13" s="7">
-        <v>39</v>
-      </c>
-      <c r="N13" s="7">
-        <v>41309</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>55170</v>
+        <v>59720</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="7">
+        <v>38</v>
+      </c>
+      <c r="I14" s="7">
+        <v>41011</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M14" s="7">
+        <v>97</v>
+      </c>
+      <c r="N14" s="7">
+        <v>100731</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="7">
-        <v>32</v>
-      </c>
-      <c r="I14" s="7">
-        <v>36056</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M14" s="7">
-        <v>82</v>
-      </c>
-      <c r="N14" s="7">
-        <v>91227</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,153 +3170,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D15" s="7">
-        <v>79557</v>
+        <v>78432</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I15" s="7">
-        <v>52979</v>
+        <v>64096</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="N15" s="7">
-        <v>132536</v>
+        <v>142529</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D16" s="7">
-        <v>18712</v>
+        <v>84545</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="7">
+        <v>80</v>
+      </c>
+      <c r="I16" s="7">
+        <v>88049</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" s="7">
+        <v>161</v>
+      </c>
+      <c r="N16" s="7">
+        <v>172594</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H16" s="7">
-        <v>21</v>
-      </c>
-      <c r="I16" s="7">
-        <v>23085</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M16" s="7">
-        <v>40</v>
-      </c>
-      <c r="N16" s="7">
-        <v>41798</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="D17" s="7">
-        <v>59720</v>
+        <v>240802</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="7">
+        <v>117</v>
+      </c>
+      <c r="I17" s="7">
+        <v>126786</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" s="7">
+        <v>348</v>
+      </c>
+      <c r="N17" s="7">
+        <v>367588</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="7">
-        <v>38</v>
-      </c>
-      <c r="I17" s="7">
-        <v>41011</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M17" s="7">
-        <v>97</v>
-      </c>
-      <c r="N17" s="7">
-        <v>100731</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,217 +3325,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="D18" s="7">
-        <v>78432</v>
+        <v>325347</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="I18" s="7">
-        <v>64096</v>
+        <v>214835</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="N18" s="7">
-        <v>142529</v>
+        <v>540182</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>81</v>
-      </c>
-      <c r="D19" s="7">
-        <v>84545</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19" s="7">
-        <v>80</v>
-      </c>
-      <c r="I19" s="7">
-        <v>88049</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="7">
-        <v>161</v>
-      </c>
-      <c r="N19" s="7">
-        <v>172594</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>231</v>
-      </c>
-      <c r="D20" s="7">
-        <v>240802</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="7">
-        <v>117</v>
-      </c>
-      <c r="I20" s="7">
-        <v>126786</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M20" s="7">
-        <v>348</v>
-      </c>
-      <c r="N20" s="7">
-        <v>367588</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>312</v>
-      </c>
-      <c r="D21" s="7">
-        <v>325347</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>197</v>
-      </c>
-      <c r="I21" s="7">
-        <v>214835</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>509</v>
-      </c>
-      <c r="N21" s="7">
-        <v>540182</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3857,8 +3392,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD85A3FD-9868-4833-A481-9F55CB9FDC86}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D03B63-F0D4-4B8B-A553-04C37FDEBCF0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3874,7 +3409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3975,100 +3510,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>2921</v>
+        <v>13103</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>3578</v>
+        <v>13342</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>6499</v>
+        <v>26445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7">
-        <v>5128</v>
+        <v>41570</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>2552</v>
+        <v>16573</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>7680</v>
+        <v>58143</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,153 +3612,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>8049</v>
+        <v>54673</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>6130</v>
+        <v>29915</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N6" s="7">
-        <v>14179</v>
+        <v>84588</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>10182</v>
+        <v>20659</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>9764</v>
+        <v>18141</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>19946</v>
+        <v>38800</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D8" s="7">
-        <v>36442</v>
+        <v>76325</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7">
-        <v>14021</v>
+        <v>37411</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="N8" s="7">
-        <v>50463</v>
+        <v>113735</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,153 +3767,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7">
-        <v>46624</v>
+        <v>96984</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>23785</v>
+        <v>55552</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="N9" s="7">
-        <v>70409</v>
+        <v>152535</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>20659</v>
+        <v>33584</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>18141</v>
+        <v>27569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="N10" s="7">
-        <v>38800</v>
+        <v>61153</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D11" s="7">
-        <v>76325</v>
+        <v>76351</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>37411</v>
+        <v>37178</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N11" s="7">
-        <v>113735</v>
+        <v>113529</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,153 +3922,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7">
-        <v>96984</v>
+        <v>109935</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I12" s="7">
-        <v>55552</v>
+        <v>64747</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="N12" s="7">
-        <v>152535</v>
+        <v>174682</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>33584</v>
+        <v>27718</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>27569</v>
+        <v>30521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="M13" s="7">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N13" s="7">
-        <v>61153</v>
+        <v>58239</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>76351</v>
+        <v>60692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>37178</v>
+        <v>35562</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="N14" s="7">
-        <v>113529</v>
+        <v>96254</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,153 +4077,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7">
-        <v>109935</v>
+        <v>88410</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I15" s="7">
-        <v>64747</v>
+        <v>66083</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="N15" s="7">
-        <v>174682</v>
+        <v>154493</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D16" s="7">
-        <v>27718</v>
+        <v>95064</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I16" s="7">
-        <v>30521</v>
+        <v>89574</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="N16" s="7">
-        <v>58239</v>
+        <v>184638</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="D17" s="7">
-        <v>60692</v>
+        <v>254937</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="I17" s="7">
-        <v>35562</v>
+        <v>126724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
-        <v>91</v>
+        <v>355</v>
       </c>
       <c r="N17" s="7">
-        <v>96254</v>
+        <v>381661</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,217 +4232,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="D18" s="7">
-        <v>88410</v>
+        <v>350001</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="I18" s="7">
-        <v>66083</v>
+        <v>216298</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>145</v>
+        <v>529</v>
       </c>
       <c r="N18" s="7">
-        <v>154493</v>
+        <v>566299</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>87</v>
-      </c>
-      <c r="D19" s="7">
-        <v>95064</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="7">
-        <v>87</v>
-      </c>
-      <c r="I19" s="7">
-        <v>89574</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M19" s="7">
-        <v>174</v>
-      </c>
-      <c r="N19" s="7">
-        <v>184638</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>235</v>
-      </c>
-      <c r="D20" s="7">
-        <v>254937</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H20" s="7">
-        <v>120</v>
-      </c>
-      <c r="I20" s="7">
-        <v>126724</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M20" s="7">
-        <v>355</v>
-      </c>
-      <c r="N20" s="7">
-        <v>381661</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>322</v>
-      </c>
-      <c r="D21" s="7">
-        <v>350001</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>207</v>
-      </c>
-      <c r="I21" s="7">
-        <v>216298</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>529</v>
-      </c>
-      <c r="N21" s="7">
-        <v>566299</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4920,8 +4299,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1604900F-C991-4B1B-83DA-5D15E6C52217}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8C8A36-E3FB-44AA-889D-270939A664C4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4937,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5038,100 +4417,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>2306</v>
+        <v>11224</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>2091</v>
+        <v>15692</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>4397</v>
+        <v>26916</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D5" s="7">
-        <v>11907</v>
+        <v>59991</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="I5" s="7">
-        <v>9200</v>
+        <v>38989</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="N5" s="7">
-        <v>21106</v>
+        <v>98981</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,153 +4519,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7">
-        <v>14213</v>
+        <v>71215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I6" s="7">
-        <v>11291</v>
+        <v>54681</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="N6" s="7">
-        <v>25503</v>
+        <v>125897</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>9575</v>
+        <v>25477</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I7" s="7">
-        <v>14566</v>
+        <v>34258</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="N7" s="7">
-        <v>24141</v>
+        <v>59735</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7">
-        <v>50737</v>
+        <v>86506</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="I8" s="7">
-        <v>33428</v>
+        <v>64472</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="N8" s="7">
-        <v>84165</v>
+        <v>150977</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,153 +4674,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D9" s="7">
-        <v>60312</v>
+        <v>111983</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="I9" s="7">
-        <v>47994</v>
+        <v>98730</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="N9" s="7">
-        <v>108306</v>
+        <v>210712</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>25872</v>
+        <v>10433</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>37918</v>
+        <v>27501</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>63790</v>
+        <v>37934</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>90578</v>
+        <v>44844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>71314</v>
+        <v>69407</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="N11" s="7">
-        <v>161892</v>
+        <v>114250</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,153 +4829,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7">
-        <v>116450</v>
+        <v>55277</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
+        <v>88</v>
+      </c>
+      <c r="I12" s="7">
+        <v>96908</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
         <v>146</v>
       </c>
-      <c r="I12" s="7">
-        <v>109232</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="7">
-        <v>257</v>
-      </c>
       <c r="N12" s="7">
-        <v>225682</v>
+        <v>152184</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>11180</v>
+        <v>30415</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I13" s="7">
-        <v>29907</v>
+        <v>36958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="N13" s="7">
-        <v>41087</v>
+        <v>67373</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7">
-        <v>46857</v>
+        <v>70615</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="I14" s="7">
-        <v>49871</v>
+        <v>66938</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="N14" s="7">
-        <v>96729</v>
+        <v>137553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,153 +4984,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="D15" s="7">
-        <v>58037</v>
+        <v>101030</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="I15" s="7">
-        <v>79778</v>
+        <v>103896</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>137816</v>
+        <v>204926</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7">
-        <v>30045</v>
+        <v>77549</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="I16" s="7">
-        <v>40919</v>
+        <v>114409</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="N16" s="7">
-        <v>70964</v>
+        <v>191958</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="D17" s="7">
-        <v>73961</v>
+        <v>261956</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
-        <v>106</v>
+        <v>323</v>
       </c>
       <c r="I17" s="7">
-        <v>71997</v>
+        <v>239806</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
-        <v>177</v>
+        <v>587</v>
       </c>
       <c r="N17" s="7">
-        <v>145957</v>
+        <v>501762</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,217 +5139,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="D18" s="7">
-        <v>104006</v>
+        <v>339505</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>150</v>
+        <v>474</v>
       </c>
       <c r="I18" s="7">
-        <v>112916</v>
+        <v>354215</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>251</v>
+        <v>812</v>
       </c>
       <c r="N18" s="7">
-        <v>216921</v>
+        <v>693720</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>74</v>
-      </c>
-      <c r="D19" s="7">
-        <v>78977</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="H19" s="7">
-        <v>151</v>
-      </c>
-      <c r="I19" s="7">
-        <v>125402</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="M19" s="7">
-        <v>225</v>
-      </c>
-      <c r="N19" s="7">
-        <v>204379</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>264</v>
-      </c>
-      <c r="D20" s="7">
-        <v>274041</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H20" s="7">
-        <v>323</v>
-      </c>
-      <c r="I20" s="7">
-        <v>235809</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M20" s="7">
-        <v>587</v>
-      </c>
-      <c r="N20" s="7">
-        <v>509849</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>338</v>
-      </c>
-      <c r="D21" s="7">
-        <v>353018</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>474</v>
-      </c>
-      <c r="I21" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>812</v>
-      </c>
-      <c r="N21" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
